--- a/equilibrium_calc/input/SLE/NIFEDIPINE.xlsx
+++ b/equilibrium_calc/input/SLE/NIFEDIPINE.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\Pesquisa\IC_2024\Projetos\ic_latos_project\equilibrium_calc\input\SLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acbc9694e378350f/Documentos/college/ic_latos/dev_projects/ic_latos_project/equilibrium_calc/input/SLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F77F6-B165-40F3-AF92-157040A6D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="11_F25DC773A252ABDACC1048A5F1D846F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0B08A5-260E-4D44-BF1C-E932ADCB7EC1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="11">
-  <si>
-    <t>Temperature</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>Solvent</t>
   </si>
@@ -36,7 +44,25 @@
     <t>Molar Ratio</t>
   </si>
   <si>
+    <t>Temperature</t>
+  </si>
+  <si>
     <t>SLE</t>
+  </si>
+  <si>
+    <t>ETHANOL</t>
+  </si>
+  <si>
+    <t>METHANOL</t>
+  </si>
+  <si>
+    <t>N-PROPANOL</t>
+  </si>
+  <si>
+    <t>ISOPROPANOL</t>
+  </si>
+  <si>
+    <t>N-BUTANOL</t>
   </si>
   <si>
     <t>ISOBUTANOL</t>
@@ -48,7 +74,7 @@
     <t>ETHYL_FORMATE</t>
   </si>
   <si>
-    <t>METHYL_ACETATE</t>
+    <t>METHYL_FORMATE</t>
   </si>
   <si>
     <t>ETHYL_ACETATE</t>
@@ -64,21 +90,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1E211E"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,9 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,916 +401,1688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>283.14999999999998</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>288.14999999999998</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.4599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>293.14999999999998</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>298.14999999999998</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>303.14999999999998</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>308.14999999999998</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>313.14999999999998</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.7099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>318.14999999999998</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.1700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>323.14999999999998</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+      <c r="B10" t="s">
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>8.9700000000000005E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>283.14999999999998</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.14E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>288.14999999999998</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.5300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>293.14999999999998</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>298.14999999999998</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.3600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>303.14999999999998</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.3699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>308.14999999999998</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>313.14999999999998</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>318.14999999999998</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.92E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>323.14999999999998</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>283.14999999999998</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>288.14999999999998</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.5899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>293.14999999999998</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>298.14999999999998</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.79E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>303.14999999999998</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.6600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>308.14999999999998</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.7600000000000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>313.14999999999998</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.26E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>318.14999999999998</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>8.8400000000000006E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>323.14999999999998</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>283.14999999999998</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>288.14999999999998</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>293.14999999999998</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.5699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>298.14999999999998</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>303.14999999999998</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.96E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>308.14999999999998</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>313.14999999999998</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>318.14999999999998</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.5199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>323.14999999999998</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9.2099999999999994E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>283.14999999999998</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>9</v>
+      <c r="B38" t="s">
+        <v>8</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>288.14999999999998</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
+      <c r="B39" t="s">
+        <v>8</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>293.14999999999998</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
+      <c r="B40" t="s">
+        <v>8</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>298.14999999999998</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
+      <c r="B41" t="s">
+        <v>8</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>303.14999999999998</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
+      <c r="B42" t="s">
+        <v>8</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>308.14999999999998</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
+      <c r="B43" t="s">
+        <v>8</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>313.14999999999998</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.1199999999999996E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>318.14999999999998</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
+      <c r="B45" t="s">
+        <v>8</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>323.14999999999998</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
+      <c r="B46" t="s">
+        <v>8</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.065E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>283.14999999999998</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
+      <c r="B47" t="s">
+        <v>9</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>288.14999999999998</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
+      <c r="B48" t="s">
+        <v>9</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.16E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>293.14999999999998</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
+      <c r="B49" t="s">
+        <v>9</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.65E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>298.14999999999998</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
+      <c r="B50" t="s">
+        <v>9</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>303.14999999999998</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
+      <c r="B51" t="s">
+        <v>9</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>308.14999999999998</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
+      <c r="B52" t="s">
+        <v>9</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.0400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>313.14999999999998</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
+      <c r="B53" t="s">
+        <v>9</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>318.14999999999998</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
+      <c r="B54" t="s">
+        <v>9</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7.3499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>323.14999999999998</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>10</v>
+      <c r="B55" t="s">
+        <v>9</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9.2099999999999994E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>283.14999999999998</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>10</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>288.14999999999998</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
+      <c r="B57" t="s">
+        <v>10</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>293.14999999999998</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>10</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>298.14999999999998</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
+      <c r="B59" t="s">
+        <v>10</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>303.14999999999998</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>8</v>
+      <c r="B60" t="s">
+        <v>10</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>308.14999999999998</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>10</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>6.6100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>313.14999999999998</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>10</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>8.26E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>318.14999999999998</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
+      <c r="B63" t="s">
+        <v>10</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1.043E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>323.14999999999998</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
+      <c r="B64" t="s">
+        <v>10</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.01</v>
+        <v>1.294E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>9.0200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1.0449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1.158E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1.3339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1.525E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1.754E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2.0660000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2.4080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2.758E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>7.8499999999999993E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>8.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1.086E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1.2880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1.8509999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2.1930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2.6280000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1.0189999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1.184E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1.3339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1.508E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1.6979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1.899E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>2.1489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>2.4410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>2.8049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>6.77E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>7.5599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>8.3099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>9.3299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1.077E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1.205E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1.397E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1.5520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>7.2100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>288.14999999999998</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>7.9500000000000005E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>8.7399999999999995E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>9.8399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>303.14999999999998</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1.125E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1.2529999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1.421E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1.6420000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>323.14999999999998</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1.8710000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B108D9D0FDB784D95A6F186515BED06" ma:contentTypeVersion="0" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="619c7ce04f3d4e5781cdc3c83ef9f8fe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e257547f92819c86ae4143fe76bb6c5b">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9898C542-3E31-46DF-B78F-F6B036B07203}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C22DE6-315D-4A2B-A5A1-FF3A332CF9C2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D2FCF7-EC57-4770-8D6A-34748E52A586}"/>
 </file>